--- a/CumulativeTestsByTypeByCounty/2022-02-17.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-02-17.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>83798</v>
+        <v>83972</v>
       </c>
       <c r="C2" s="4">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="D2" s="4">
-        <v>45178</v>
+        <v>45244</v>
       </c>
       <c r="E2" s="4">
-        <v>131100</v>
+        <v>131342</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6816</v>
+        <v>6819</v>
       </c>
       <c r="C3" s="4">
         <v>348</v>
       </c>
       <c r="D3" s="4">
-        <v>7393</v>
+        <v>7399</v>
       </c>
       <c r="E3" s="4">
-        <v>14557</v>
+        <v>14566</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>86405</v>
+        <v>86512</v>
       </c>
       <c r="C4" s="4">
-        <v>4597</v>
+        <v>4609</v>
       </c>
       <c r="D4" s="4">
-        <v>89865</v>
+        <v>89934</v>
       </c>
       <c r="E4" s="4">
-        <v>180867</v>
+        <v>181055</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19087</v>
+        <v>19113</v>
       </c>
       <c r="C5" s="4">
-        <v>2964</v>
+        <v>2970</v>
       </c>
       <c r="D5" s="4">
-        <v>15845</v>
+        <v>15872</v>
       </c>
       <c r="E5" s="4">
-        <v>37896</v>
+        <v>37955</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5156</v>
+        <v>5159</v>
       </c>
       <c r="C6" s="4">
         <v>896</v>
       </c>
       <c r="D6" s="4">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="E6" s="4">
-        <v>8161</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="E7" s="4">
-        <v>3131</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>122067</v>
+        <v>122132</v>
       </c>
       <c r="C8" s="4">
         <v>1499</v>
       </c>
       <c r="D8" s="4">
-        <v>19428</v>
+        <v>19453</v>
       </c>
       <c r="E8" s="4">
-        <v>142994</v>
+        <v>143084</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>33242</v>
+        <v>33289</v>
       </c>
       <c r="C9" s="4">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="D9" s="4">
-        <v>6451</v>
+        <v>6458</v>
       </c>
       <c r="E9" s="4">
-        <v>41585</v>
+        <v>41643</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="C10" s="4">
         <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="E10" s="4">
-        <v>5502</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16290</v>
+        <v>16305</v>
       </c>
       <c r="C11" s="4">
         <v>884</v>
       </c>
       <c r="D11" s="4">
-        <v>10593</v>
+        <v>10605</v>
       </c>
       <c r="E11" s="4">
-        <v>27767</v>
+        <v>27794</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>109548</v>
+        <v>109657</v>
       </c>
       <c r="C12" s="4">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="D12" s="4">
-        <v>49813</v>
+        <v>49843</v>
       </c>
       <c r="E12" s="4">
-        <v>162056</v>
+        <v>162196</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="C13" s="4">
         <v>624</v>
       </c>
       <c r="D13" s="4">
-        <v>4551</v>
+        <v>4616</v>
       </c>
       <c r="E13" s="4">
-        <v>7559</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>56770</v>
+        <v>56800</v>
       </c>
       <c r="C14" s="4">
-        <v>8528</v>
+        <v>8532</v>
       </c>
       <c r="D14" s="4">
-        <v>27107</v>
+        <v>27155</v>
       </c>
       <c r="E14" s="4">
-        <v>92405</v>
+        <v>92487</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>460635</v>
+        <v>461303</v>
       </c>
       <c r="C15" s="4">
-        <v>16073</v>
+        <v>16094</v>
       </c>
       <c r="D15" s="4">
-        <v>129700</v>
+        <v>130120</v>
       </c>
       <c r="E15" s="4">
-        <v>606408</v>
+        <v>607517</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4915907</v>
+        <v>4920459</v>
       </c>
       <c r="C16" s="4">
-        <v>79728</v>
+        <v>79922</v>
       </c>
       <c r="D16" s="4">
-        <v>753658</v>
+        <v>755634</v>
       </c>
       <c r="E16" s="4">
-        <v>5749293</v>
+        <v>5756015</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10176</v>
+        <v>10186</v>
       </c>
       <c r="C17" s="4">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D17" s="4">
-        <v>6077</v>
+        <v>6082</v>
       </c>
       <c r="E17" s="4">
-        <v>16824</v>
+        <v>16841</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13706</v>
+        <v>13720</v>
       </c>
       <c r="C19" s="4">
         <v>614</v>
       </c>
       <c r="D19" s="4">
-        <v>10497</v>
+        <v>10503</v>
       </c>
       <c r="E19" s="4">
-        <v>24817</v>
+        <v>24837</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>97169</v>
+        <v>97342</v>
       </c>
       <c r="C20" s="4">
-        <v>10705</v>
+        <v>10708</v>
       </c>
       <c r="D20" s="4">
-        <v>42631</v>
+        <v>42681</v>
       </c>
       <c r="E20" s="4">
-        <v>150505</v>
+        <v>150731</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>660859</v>
+        <v>661798</v>
       </c>
       <c r="C21" s="4">
-        <v>27080</v>
+        <v>27091</v>
       </c>
       <c r="D21" s="4">
-        <v>141277</v>
+        <v>141708</v>
       </c>
       <c r="E21" s="4">
-        <v>829216</v>
+        <v>830597</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>503281</v>
+        <v>503960</v>
       </c>
       <c r="C22" s="4">
-        <v>13449</v>
+        <v>13505</v>
       </c>
       <c r="D22" s="4">
-        <v>57699</v>
+        <v>57790</v>
       </c>
       <c r="E22" s="4">
-        <v>574429</v>
+        <v>575255</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9554</v>
+        <v>9559</v>
       </c>
       <c r="C23" s="4">
         <v>179</v>
       </c>
       <c r="D23" s="4">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E23" s="4">
-        <v>13385</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,16 +1448,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E24" s="4">
-        <v>1982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26409</v>
+        <v>26417</v>
       </c>
       <c r="C25" s="4">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="D25" s="4">
-        <v>7155</v>
+        <v>7159</v>
       </c>
       <c r="E25" s="4">
-        <v>35478</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>29898</v>
+        <v>29918</v>
       </c>
       <c r="C26" s="4">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D26" s="4">
-        <v>49683</v>
+        <v>49772</v>
       </c>
       <c r="E26" s="4">
-        <v>80852</v>
+        <v>80962</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29143</v>
+        <v>29173</v>
       </c>
       <c r="C27" s="4">
         <v>869</v>
       </c>
       <c r="D27" s="4">
-        <v>7749</v>
+        <v>7754</v>
       </c>
       <c r="E27" s="4">
-        <v>37761</v>
+        <v>37796</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>64495</v>
+        <v>64572</v>
       </c>
       <c r="C28" s="4">
-        <v>2550</v>
+        <v>2569</v>
       </c>
       <c r="D28" s="4">
-        <v>16800</v>
+        <v>16826</v>
       </c>
       <c r="E28" s="4">
-        <v>83845</v>
+        <v>83967</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>70230</v>
+        <v>70349</v>
       </c>
       <c r="C29" s="4">
-        <v>2320</v>
+        <v>2325</v>
       </c>
       <c r="D29" s="4">
-        <v>20708</v>
+        <v>20722</v>
       </c>
       <c r="E29" s="4">
-        <v>93258</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>22852</v>
+        <v>22878</v>
       </c>
       <c r="C30" s="4">
-        <v>2411</v>
+        <v>2421</v>
       </c>
       <c r="D30" s="4">
-        <v>17393</v>
+        <v>17420</v>
       </c>
       <c r="E30" s="4">
-        <v>42656</v>
+        <v>42719</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7724</v>
+        <v>7728</v>
       </c>
       <c r="C31" s="4">
         <v>347</v>
       </c>
       <c r="D31" s="4">
-        <v>13537</v>
+        <v>13561</v>
       </c>
       <c r="E31" s="4">
-        <v>21608</v>
+        <v>21636</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>499673</v>
+        <v>500832</v>
       </c>
       <c r="C32" s="4">
-        <v>12032</v>
+        <v>12051</v>
       </c>
       <c r="D32" s="4">
-        <v>176846</v>
+        <v>177440</v>
       </c>
       <c r="E32" s="4">
-        <v>688551</v>
+        <v>690323</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10636</v>
+        <v>10658</v>
       </c>
       <c r="C33" s="4">
         <v>571</v>
       </c>
       <c r="D33" s="4">
-        <v>4503</v>
+        <v>4509</v>
       </c>
       <c r="E33" s="4">
-        <v>15710</v>
+        <v>15738</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3515</v>
+        <v>3520</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1801</v>
+        <v>1808</v>
       </c>
       <c r="E34" s="4">
-        <v>6466</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>21664</v>
+        <v>21691</v>
       </c>
       <c r="C35" s="4">
         <v>3400</v>
       </c>
       <c r="D35" s="4">
-        <v>16009</v>
+        <v>16038</v>
       </c>
       <c r="E35" s="4">
-        <v>41073</v>
+        <v>41129</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9347</v>
+        <v>9382</v>
       </c>
       <c r="C36" s="4">
         <v>451</v>
       </c>
       <c r="D36" s="4">
-        <v>4227</v>
+        <v>4317</v>
       </c>
       <c r="E36" s="4">
-        <v>14025</v>
+        <v>14150</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>15921</v>
+        <v>15959</v>
       </c>
       <c r="C37" s="4">
         <v>927</v>
       </c>
       <c r="D37" s="4">
-        <v>4190</v>
+        <v>4199</v>
       </c>
       <c r="E37" s="4">
-        <v>21038</v>
+        <v>21085</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>40697</v>
+        <v>40760</v>
       </c>
       <c r="C38" s="4">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D38" s="4">
-        <v>36281</v>
+        <v>36303</v>
       </c>
       <c r="E38" s="4">
-        <v>78320</v>
+        <v>78407</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8357</v>
+        <v>8367</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6878</v>
+        <v>6881</v>
       </c>
       <c r="E39" s="4">
-        <v>15714</v>
+        <v>15727</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7346</v>
+        <v>7354</v>
       </c>
       <c r="C40" s="4">
         <v>737</v>
       </c>
       <c r="D40" s="4">
-        <v>6726</v>
+        <v>6774</v>
       </c>
       <c r="E40" s="4">
-        <v>14809</v>
+        <v>14865</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,7 +1737,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
@@ -1746,7 +1746,7 @@
         <v>557</v>
       </c>
       <c r="E41" s="4">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C42" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4">
-        <v>3997</v>
+        <v>4001</v>
       </c>
       <c r="E42" s="4">
-        <v>7166</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4899</v>
+        <v>4904</v>
       </c>
       <c r="C43" s="4">
         <v>181</v>
       </c>
       <c r="D43" s="4">
-        <v>5781</v>
+        <v>5789</v>
       </c>
       <c r="E43" s="4">
-        <v>10861</v>
+        <v>10874</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1825864</v>
+        <v>1827931</v>
       </c>
       <c r="C44" s="4">
-        <v>117215</v>
+        <v>117398</v>
       </c>
       <c r="D44" s="4">
-        <v>390996</v>
+        <v>392103</v>
       </c>
       <c r="E44" s="4">
-        <v>2334075</v>
+        <v>2337432</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
       </c>
       <c r="D45" s="4">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="E45" s="4">
-        <v>6229</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21320</v>
+        <v>21367</v>
       </c>
       <c r="C46" s="4">
         <v>1224</v>
       </c>
       <c r="D46" s="4">
-        <v>12277</v>
+        <v>12285</v>
       </c>
       <c r="E46" s="4">
-        <v>34821</v>
+        <v>34876</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>216634</v>
+        <v>216929</v>
       </c>
       <c r="C47" s="4">
-        <v>13429</v>
+        <v>13471</v>
       </c>
       <c r="D47" s="4">
-        <v>63587</v>
+        <v>63726</v>
       </c>
       <c r="E47" s="4">
-        <v>293650</v>
+        <v>294126</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12690</v>
+        <v>12710</v>
       </c>
       <c r="C48" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D48" s="4">
-        <v>7776</v>
+        <v>7781</v>
       </c>
       <c r="E48" s="4">
-        <v>20852</v>
+        <v>20879</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2609</v>
+        <v>2627</v>
       </c>
       <c r="C49" s="4">
         <v>39</v>
       </c>
       <c r="D49" s="4">
-        <v>5400</v>
+        <v>5437</v>
       </c>
       <c r="E49" s="4">
-        <v>8048</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35361</v>
+        <v>35395</v>
       </c>
       <c r="C50" s="4">
-        <v>2457</v>
+        <v>2467</v>
       </c>
       <c r="D50" s="4">
-        <v>15174</v>
+        <v>15317</v>
       </c>
       <c r="E50" s="4">
-        <v>52992</v>
+        <v>53179</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>148020</v>
+        <v>148126</v>
       </c>
       <c r="C51" s="4">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="D51" s="4">
-        <v>35393</v>
+        <v>35437</v>
       </c>
       <c r="E51" s="4">
-        <v>185906</v>
+        <v>186058</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="C52" s="4">
         <v>77</v>
@@ -1933,7 +1933,7 @@
         <v>1100</v>
       </c>
       <c r="E52" s="4">
-        <v>2668</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5095</v>
+        <v>5096</v>
       </c>
       <c r="C53" s="4">
         <v>97</v>
       </c>
       <c r="D53" s="4">
-        <v>4994</v>
+        <v>5010</v>
       </c>
       <c r="E53" s="4">
-        <v>10186</v>
+        <v>10203</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1964,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5928</v>
+        <v>5938</v>
       </c>
       <c r="E54" s="4">
-        <v>7222</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4173</v>
+        <v>4175</v>
       </c>
       <c r="C55" s="4">
         <v>78</v>
       </c>
       <c r="D55" s="4">
-        <v>4367</v>
+        <v>4375</v>
       </c>
       <c r="E55" s="4">
-        <v>8618</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3096</v>
+        <v>3103</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
@@ -2001,7 +2001,7 @@
         <v>462</v>
       </c>
       <c r="E56" s="4">
-        <v>3600</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4357</v>
+        <v>4377</v>
       </c>
       <c r="C57" s="4">
         <v>609</v>
       </c>
       <c r="D57" s="4">
-        <v>4243</v>
+        <v>4248</v>
       </c>
       <c r="E57" s="4">
-        <v>9209</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4354542</v>
+        <v>4359397</v>
       </c>
       <c r="C58" s="4">
-        <v>173667</v>
+        <v>173889</v>
       </c>
       <c r="D58" s="4">
-        <v>753328</v>
+        <v>754798</v>
       </c>
       <c r="E58" s="4">
-        <v>5281537</v>
+        <v>5288084</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12276</v>
+        <v>12282</v>
       </c>
       <c r="C59" s="4">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D59" s="4">
-        <v>7071</v>
+        <v>7116</v>
       </c>
       <c r="E59" s="4">
-        <v>19982</v>
+        <v>20035</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17692</v>
+        <v>17712</v>
       </c>
       <c r="C60" s="4">
         <v>657</v>
       </c>
       <c r="D60" s="4">
-        <v>8904</v>
+        <v>8917</v>
       </c>
       <c r="E60" s="4">
-        <v>27253</v>
+        <v>27286</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9205</v>
+        <v>9219</v>
       </c>
       <c r="C61" s="4">
         <v>1304</v>
       </c>
       <c r="D61" s="4">
-        <v>8130</v>
+        <v>8269</v>
       </c>
       <c r="E61" s="4">
-        <v>18639</v>
+        <v>18792</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C62" s="4">
         <v>263</v>
       </c>
       <c r="D62" s="4">
-        <v>3751</v>
+        <v>3758</v>
       </c>
       <c r="E62" s="4">
-        <v>7454</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1070708</v>
+        <v>1071854</v>
       </c>
       <c r="C63" s="4">
-        <v>84297</v>
+        <v>84356</v>
       </c>
       <c r="D63" s="4">
-        <v>311865</v>
+        <v>312350</v>
       </c>
       <c r="E63" s="4">
-        <v>1466870</v>
+        <v>1468560</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2134,10 +2134,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E64" s="4">
-        <v>2228</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>35274</v>
+        <v>35392</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>45686</v>
+        <v>45822</v>
       </c>
       <c r="E65" s="4">
-        <v>81097</v>
+        <v>81351</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
       </c>
       <c r="D66" s="4">
-        <v>2473</v>
+        <v>2488</v>
       </c>
       <c r="E66" s="4">
-        <v>5305</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>26832</v>
+        <v>26865</v>
       </c>
       <c r="C67" s="4">
         <v>3504</v>
       </c>
       <c r="D67" s="4">
-        <v>13604</v>
+        <v>13624</v>
       </c>
       <c r="E67" s="4">
-        <v>43940</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8361</v>
+        <v>8368</v>
       </c>
       <c r="C68" s="4">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D68" s="4">
-        <v>10090</v>
+        <v>10200</v>
       </c>
       <c r="E68" s="4">
-        <v>19008</v>
+        <v>19126</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>106683</v>
+        <v>106799</v>
       </c>
       <c r="C69" s="4">
-        <v>6609</v>
+        <v>6611</v>
       </c>
       <c r="D69" s="4">
-        <v>80737</v>
+        <v>81022</v>
       </c>
       <c r="E69" s="4">
-        <v>194029</v>
+        <v>194432</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2236,10 +2236,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="E70" s="4">
-        <v>2660</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1466233</v>
+        <v>1468688</v>
       </c>
       <c r="C71" s="4">
-        <v>23822</v>
+        <v>23835</v>
       </c>
       <c r="D71" s="4">
-        <v>674225</v>
+        <v>674868</v>
       </c>
       <c r="E71" s="4">
-        <v>2164280</v>
+        <v>2167391</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>286184</v>
+        <v>286452</v>
       </c>
       <c r="C72" s="4">
-        <v>9979</v>
+        <v>9992</v>
       </c>
       <c r="D72" s="4">
-        <v>66644</v>
+        <v>66775</v>
       </c>
       <c r="E72" s="4">
-        <v>362807</v>
+        <v>363219</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37032</v>
+        <v>37081</v>
       </c>
       <c r="C73" s="4">
-        <v>2159</v>
+        <v>2169</v>
       </c>
       <c r="D73" s="4">
-        <v>15918</v>
+        <v>15929</v>
       </c>
       <c r="E73" s="4">
-        <v>55109</v>
+        <v>55179</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19841</v>
+        <v>19856</v>
       </c>
       <c r="C74" s="4">
         <v>495</v>
       </c>
       <c r="D74" s="4">
-        <v>11585</v>
+        <v>11617</v>
       </c>
       <c r="E74" s="4">
-        <v>31921</v>
+        <v>31968</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48016</v>
+        <v>48046</v>
       </c>
       <c r="C75" s="4">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D75" s="4">
-        <v>13667</v>
+        <v>13727</v>
       </c>
       <c r="E75" s="4">
-        <v>62877</v>
+        <v>62969</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>25529</v>
+        <v>25541</v>
       </c>
       <c r="C76" s="4">
         <v>1071</v>
       </c>
       <c r="D76" s="4">
-        <v>8936</v>
+        <v>8948</v>
       </c>
       <c r="E76" s="4">
-        <v>35536</v>
+        <v>35560</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2355,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E77" s="4">
-        <v>2807</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,16 +2366,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5509</v>
+        <v>5517</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E78" s="4">
-        <v>6693</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,16 +2383,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2312</v>
+        <v>2324</v>
       </c>
       <c r="E79" s="4">
-        <v>3247</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1358654</v>
+        <v>1361039</v>
       </c>
       <c r="C80" s="4">
-        <v>52485</v>
+        <v>52535</v>
       </c>
       <c r="D80" s="4">
-        <v>199045</v>
+        <v>199428</v>
       </c>
       <c r="E80" s="4">
-        <v>1610184</v>
+        <v>1613002</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8001</v>
+        <v>8012</v>
       </c>
       <c r="C81" s="4">
         <v>625</v>
       </c>
       <c r="D81" s="4">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="E81" s="4">
-        <v>10796</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26222</v>
+        <v>26255</v>
       </c>
       <c r="C82" s="4">
         <v>873</v>
       </c>
       <c r="D82" s="4">
-        <v>23158</v>
+        <v>23169</v>
       </c>
       <c r="E82" s="4">
-        <v>50253</v>
+        <v>50297</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>37190</v>
+        <v>37261</v>
       </c>
       <c r="C83" s="4">
         <v>583</v>
       </c>
       <c r="D83" s="4">
-        <v>10207</v>
+        <v>10226</v>
       </c>
       <c r="E83" s="4">
-        <v>47980</v>
+        <v>48070</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5695</v>
+        <v>5700</v>
       </c>
       <c r="C84" s="4">
         <v>310</v>
       </c>
       <c r="D84" s="4">
-        <v>2992</v>
+        <v>2998</v>
       </c>
       <c r="E84" s="4">
-        <v>8997</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>704462</v>
+        <v>705503</v>
       </c>
       <c r="C85" s="4">
-        <v>28054</v>
+        <v>28076</v>
       </c>
       <c r="D85" s="4">
-        <v>120290</v>
+        <v>120588</v>
       </c>
       <c r="E85" s="4">
-        <v>852806</v>
+        <v>854167</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4629</v>
+        <v>4647</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E86" s="4">
-        <v>6858</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>23819</v>
+        <v>23838</v>
       </c>
       <c r="C87" s="4">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="D87" s="4">
-        <v>13636</v>
+        <v>13649</v>
       </c>
       <c r="E87" s="4">
-        <v>38554</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2542,10 +2542,10 @@
         <v>54</v>
       </c>
       <c r="D88" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E88" s="4">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5371</v>
+        <v>5375</v>
       </c>
       <c r="C89" s="4">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D89" s="4">
-        <v>4106</v>
+        <v>4115</v>
       </c>
       <c r="E89" s="4">
-        <v>9859</v>
+        <v>9878</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18653</v>
+        <v>18666</v>
       </c>
       <c r="C90" s="4">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D90" s="4">
-        <v>15099</v>
+        <v>15120</v>
       </c>
       <c r="E90" s="4">
-        <v>34286</v>
+        <v>34324</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14643</v>
+        <v>14654</v>
       </c>
       <c r="C91" s="4">
         <v>1383</v>
       </c>
       <c r="D91" s="4">
-        <v>13661</v>
+        <v>13686</v>
       </c>
       <c r="E91" s="4">
-        <v>29687</v>
+        <v>29723</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>191852</v>
+        <v>192008</v>
       </c>
       <c r="C92" s="4">
-        <v>6520</v>
+        <v>6534</v>
       </c>
       <c r="D92" s="4">
-        <v>60301</v>
+        <v>60692</v>
       </c>
       <c r="E92" s="4">
-        <v>258673</v>
+        <v>259234</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>90492</v>
+        <v>90707</v>
       </c>
       <c r="C93" s="4">
-        <v>12418</v>
+        <v>12419</v>
       </c>
       <c r="D93" s="4">
-        <v>51644</v>
+        <v>51712</v>
       </c>
       <c r="E93" s="4">
-        <v>154554</v>
+        <v>154838</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>61773</v>
+        <v>61812</v>
       </c>
       <c r="C94" s="4">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="D94" s="4">
-        <v>16270</v>
+        <v>16343</v>
       </c>
       <c r="E94" s="4">
-        <v>79576</v>
+        <v>79693</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>169465</v>
+        <v>169680</v>
       </c>
       <c r="C95" s="4">
-        <v>6524</v>
+        <v>6538</v>
       </c>
       <c r="D95" s="4">
-        <v>56727</v>
+        <v>56928</v>
       </c>
       <c r="E95" s="4">
-        <v>232716</v>
+        <v>233146</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>34893</v>
+        <v>34921</v>
       </c>
       <c r="C96" s="4">
         <v>554</v>
       </c>
       <c r="D96" s="4">
-        <v>9860</v>
+        <v>9873</v>
       </c>
       <c r="E96" s="4">
-        <v>45307</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2738</v>
+        <v>2748</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
@@ -2698,7 +2698,7 @@
         <v>3628</v>
       </c>
       <c r="E97" s="4">
-        <v>6446</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12274</v>
+        <v>12294</v>
       </c>
       <c r="C98" s="4">
         <v>476</v>
       </c>
       <c r="D98" s="4">
-        <v>5496</v>
+        <v>5500</v>
       </c>
       <c r="E98" s="4">
-        <v>18246</v>
+        <v>18270</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
@@ -2732,7 +2732,7 @@
         <v>4907</v>
       </c>
       <c r="E99" s="4">
-        <v>8125</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="C100" s="4">
         <v>331</v>
       </c>
       <c r="D100" s="4">
-        <v>3979</v>
+        <v>3987</v>
       </c>
       <c r="E100" s="4">
-        <v>7095</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>47959</v>
+        <v>48013</v>
       </c>
       <c r="C101" s="4">
-        <v>4633</v>
+        <v>4641</v>
       </c>
       <c r="D101" s="4">
-        <v>31390</v>
+        <v>31437</v>
       </c>
       <c r="E101" s="4">
-        <v>83982</v>
+        <v>84091</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8425736</v>
+        <v>8441644</v>
       </c>
       <c r="C102" s="4">
-        <v>284179</v>
+        <v>284412</v>
       </c>
       <c r="D102" s="4">
-        <v>1235600</v>
+        <v>1238100</v>
       </c>
       <c r="E102" s="4">
-        <v>9945515</v>
+        <v>9964156</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>90987</v>
+        <v>91158</v>
       </c>
       <c r="C103" s="4">
-        <v>9452</v>
+        <v>9456</v>
       </c>
       <c r="D103" s="4">
-        <v>37587</v>
+        <v>37674</v>
       </c>
       <c r="E103" s="4">
-        <v>138026</v>
+        <v>138288</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2808,7 +2808,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" s="4">
         <v>81</v>
@@ -2817,7 +2817,7 @@
         <v>293</v>
       </c>
       <c r="E104" s="4">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4325</v>
+        <v>4335</v>
       </c>
       <c r="E105" s="4">
-        <v>6418</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>512308</v>
+        <v>513602</v>
       </c>
       <c r="C106" s="4">
-        <v>17868</v>
+        <v>17911</v>
       </c>
       <c r="D106" s="4">
-        <v>69942</v>
+        <v>70067</v>
       </c>
       <c r="E106" s="4">
-        <v>600118</v>
+        <v>601580</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1460</v>
+        <v>1469</v>
       </c>
       <c r="C107" s="4">
         <v>549</v>
       </c>
       <c r="D107" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E107" s="4">
-        <v>2588</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>55532</v>
+        <v>55745</v>
       </c>
       <c r="C108" s="4">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="D108" s="4">
-        <v>32193</v>
+        <v>32256</v>
       </c>
       <c r="E108" s="4">
-        <v>91087</v>
+        <v>91368</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>966203</v>
+        <v>969477</v>
       </c>
       <c r="C109" s="4">
-        <v>23129</v>
+        <v>23193</v>
       </c>
       <c r="D109" s="4">
-        <v>450719</v>
+        <v>451719</v>
       </c>
       <c r="E109" s="4">
-        <v>1440051</v>
+        <v>1444389</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45389</v>
+        <v>45457</v>
       </c>
       <c r="C110" s="4">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D110" s="4">
-        <v>21920</v>
+        <v>22002</v>
       </c>
       <c r="E110" s="4">
-        <v>68638</v>
+        <v>68790</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21159</v>
+        <v>21190</v>
       </c>
       <c r="C111" s="4">
         <v>275</v>
       </c>
       <c r="D111" s="4">
-        <v>9036</v>
+        <v>9084</v>
       </c>
       <c r="E111" s="4">
-        <v>30470</v>
+        <v>30549</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>61589</v>
+        <v>61645</v>
       </c>
       <c r="C112" s="4">
         <v>3384</v>
       </c>
       <c r="D112" s="4">
-        <v>48776</v>
+        <v>48820</v>
       </c>
       <c r="E112" s="4">
-        <v>113749</v>
+        <v>113849</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>30455</v>
+        <v>30489</v>
       </c>
       <c r="C113" s="4">
         <v>2179</v>
       </c>
       <c r="D113" s="4">
-        <v>16669</v>
+        <v>16779</v>
       </c>
       <c r="E113" s="4">
-        <v>49303</v>
+        <v>49447</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22166</v>
+        <v>22184</v>
       </c>
       <c r="C114" s="4">
         <v>726</v>
       </c>
       <c r="D114" s="4">
-        <v>13283</v>
+        <v>13315</v>
       </c>
       <c r="E114" s="4">
-        <v>36175</v>
+        <v>36225</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24378</v>
+        <v>24391</v>
       </c>
       <c r="C115" s="4">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D115" s="4">
-        <v>24968</v>
+        <v>25088</v>
       </c>
       <c r="E115" s="4">
-        <v>50317</v>
+        <v>50452</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3642</v>
+        <v>3649</v>
       </c>
       <c r="C116" s="4">
         <v>53</v>
       </c>
       <c r="D116" s="4">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E116" s="4">
-        <v>5576</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>146600</v>
+        <v>146762</v>
       </c>
       <c r="C117" s="4">
-        <v>5345</v>
+        <v>5351</v>
       </c>
       <c r="D117" s="4">
-        <v>54270</v>
+        <v>54385</v>
       </c>
       <c r="E117" s="4">
-        <v>206215</v>
+        <v>206498</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>14847</v>
+        <v>14868</v>
       </c>
       <c r="C118" s="4">
         <v>1902</v>
       </c>
       <c r="D118" s="4">
-        <v>11535</v>
+        <v>11542</v>
       </c>
       <c r="E118" s="4">
-        <v>28284</v>
+        <v>28312</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C119" s="4">
         <v>27</v>
       </c>
       <c r="D119" s="4">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E119" s="4">
-        <v>1645</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5631</v>
+        <v>5651</v>
       </c>
       <c r="C120" s="4">
         <v>303</v>
       </c>
       <c r="D120" s="4">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="E120" s="4">
-        <v>8136</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12169</v>
+        <v>12178</v>
       </c>
       <c r="C121" s="4">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D121" s="4">
-        <v>6439</v>
+        <v>6447</v>
       </c>
       <c r="E121" s="4">
-        <v>19210</v>
+        <v>19230</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31103</v>
+        <v>31138</v>
       </c>
       <c r="C122" s="4">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="D122" s="4">
-        <v>19084</v>
+        <v>19209</v>
       </c>
       <c r="E122" s="4">
-        <v>53346</v>
+        <v>53510</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C123" s="4">
         <v>60</v>
       </c>
       <c r="D123" s="4">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E123" s="4">
-        <v>2502</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>258283</v>
+        <v>258572</v>
       </c>
       <c r="C124" s="4">
-        <v>16874</v>
+        <v>16901</v>
       </c>
       <c r="D124" s="4">
-        <v>118179</v>
+        <v>118562</v>
       </c>
       <c r="E124" s="4">
-        <v>393336</v>
+        <v>394035</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15230</v>
+        <v>15232</v>
       </c>
       <c r="C125" s="4">
         <v>778</v>
       </c>
       <c r="D125" s="4">
-        <v>17737</v>
+        <v>17776</v>
       </c>
       <c r="E125" s="4">
-        <v>33745</v>
+        <v>33786</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>90878</v>
+        <v>91070</v>
       </c>
       <c r="C126" s="4">
-        <v>11373</v>
+        <v>11383</v>
       </c>
       <c r="D126" s="4">
-        <v>40273</v>
+        <v>40311</v>
       </c>
       <c r="E126" s="4">
-        <v>142524</v>
+        <v>142764</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>217928</v>
+        <v>218181</v>
       </c>
       <c r="C127" s="4">
-        <v>9553</v>
+        <v>9564</v>
       </c>
       <c r="D127" s="4">
-        <v>58199</v>
+        <v>58306</v>
       </c>
       <c r="E127" s="4">
-        <v>285680</v>
+        <v>286051</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12270</v>
+        <v>12278</v>
       </c>
       <c r="C128" s="4">
         <v>250</v>
       </c>
       <c r="D128" s="4">
-        <v>11024</v>
+        <v>11112</v>
       </c>
       <c r="E128" s="4">
-        <v>23544</v>
+        <v>23640</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23577</v>
+        <v>23594</v>
       </c>
       <c r="C129" s="4">
         <v>595</v>
       </c>
       <c r="D129" s="4">
-        <v>15596</v>
+        <v>15601</v>
       </c>
       <c r="E129" s="4">
-        <v>39768</v>
+        <v>39790</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>196703</v>
+        <v>196936</v>
       </c>
       <c r="C130" s="4">
-        <v>7518</v>
+        <v>7539</v>
       </c>
       <c r="D130" s="4">
-        <v>61628</v>
+        <v>61782</v>
       </c>
       <c r="E130" s="4">
-        <v>265849</v>
+        <v>266257</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>48117</v>
+        <v>48181</v>
       </c>
       <c r="C131" s="4">
-        <v>3071</v>
+        <v>3082</v>
       </c>
       <c r="D131" s="4">
-        <v>25462</v>
+        <v>25506</v>
       </c>
       <c r="E131" s="4">
-        <v>76650</v>
+        <v>76769</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3284,7 +3284,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C132" s="4">
         <v>56</v>
@@ -3293,7 +3293,7 @@
         <v>119</v>
       </c>
       <c r="E132" s="4">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E133" s="4">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>49721</v>
+        <v>49753</v>
       </c>
       <c r="C134" s="4">
-        <v>2177</v>
+        <v>2197</v>
       </c>
       <c r="D134" s="4">
-        <v>55077</v>
+        <v>55168</v>
       </c>
       <c r="E134" s="4">
-        <v>106975</v>
+        <v>107118</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="C135" s="4">
         <v>74</v>
       </c>
       <c r="D135" s="4">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="E135" s="4">
-        <v>4304</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3352,7 +3352,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C136" s="4">
         <v>9</v>
@@ -3361,7 +3361,7 @@
         <v>51</v>
       </c>
       <c r="E136" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3661</v>
+        <v>3665</v>
       </c>
       <c r="C137" s="4">
         <v>64</v>
       </c>
       <c r="D137" s="4">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E137" s="4">
-        <v>4609</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>44986</v>
+        <v>45037</v>
       </c>
       <c r="C138" s="4">
-        <v>5553</v>
+        <v>5555</v>
       </c>
       <c r="D138" s="4">
-        <v>20249</v>
+        <v>20314</v>
       </c>
       <c r="E138" s="4">
-        <v>70788</v>
+        <v>70906</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="C139" s="4">
         <v>63</v>
       </c>
       <c r="D139" s="4">
-        <v>7348</v>
+        <v>7366</v>
       </c>
       <c r="E139" s="4">
-        <v>8709</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14029</v>
+        <v>14043</v>
       </c>
       <c r="C140" s="4">
         <v>328</v>
       </c>
       <c r="D140" s="4">
-        <v>7198</v>
+        <v>7217</v>
       </c>
       <c r="E140" s="4">
-        <v>21555</v>
+        <v>21588</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33467</v>
+        <v>33498</v>
       </c>
       <c r="C141" s="4">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="D141" s="4">
-        <v>24621</v>
+        <v>24724</v>
       </c>
       <c r="E141" s="4">
-        <v>61131</v>
+        <v>61268</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10120</v>
+        <v>10137</v>
       </c>
       <c r="C142" s="4">
         <v>189</v>
       </c>
       <c r="D142" s="4">
-        <v>12454</v>
+        <v>12595</v>
       </c>
       <c r="E142" s="4">
-        <v>22763</v>
+        <v>22921</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>32498</v>
+        <v>32516</v>
       </c>
       <c r="C143" s="4">
         <v>799</v>
       </c>
       <c r="D143" s="4">
-        <v>9090</v>
+        <v>9100</v>
       </c>
       <c r="E143" s="4">
-        <v>42387</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20565</v>
+        <v>20580</v>
       </c>
       <c r="C144" s="4">
         <v>1406</v>
       </c>
       <c r="D144" s="4">
-        <v>17860</v>
+        <v>17891</v>
       </c>
       <c r="E144" s="4">
-        <v>39831</v>
+        <v>39877</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14263</v>
+        <v>14280</v>
       </c>
       <c r="C145" s="4">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D145" s="4">
-        <v>8143</v>
+        <v>8156</v>
       </c>
       <c r="E145" s="4">
-        <v>22910</v>
+        <v>22944</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>18570</v>
+        <v>18593</v>
       </c>
       <c r="C146" s="4">
         <v>878</v>
       </c>
       <c r="D146" s="4">
-        <v>8382</v>
+        <v>8392</v>
       </c>
       <c r="E146" s="4">
-        <v>27830</v>
+        <v>27863</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>101206</v>
+        <v>101339</v>
       </c>
       <c r="C147" s="4">
-        <v>4819</v>
+        <v>4823</v>
       </c>
       <c r="D147" s="4">
-        <v>30246</v>
+        <v>30409</v>
       </c>
       <c r="E147" s="4">
-        <v>136271</v>
+        <v>136571</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42354</v>
+        <v>42370</v>
       </c>
       <c r="C148" s="4">
         <v>807</v>
       </c>
       <c r="D148" s="4">
-        <v>41779</v>
+        <v>41878</v>
       </c>
       <c r="E148" s="4">
-        <v>84940</v>
+        <v>85055</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3579,10 +3579,10 @@
         <v>330</v>
       </c>
       <c r="D149" s="4">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E149" s="4">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10178</v>
+        <v>10189</v>
       </c>
       <c r="C150" s="4">
         <v>1368</v>
       </c>
       <c r="D150" s="4">
-        <v>8669</v>
+        <v>8710</v>
       </c>
       <c r="E150" s="4">
-        <v>20215</v>
+        <v>20267</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20209</v>
+        <v>20225</v>
       </c>
       <c r="C151" s="4">
         <v>676</v>
       </c>
       <c r="D151" s="4">
-        <v>6203</v>
+        <v>6221</v>
       </c>
       <c r="E151" s="4">
-        <v>27088</v>
+        <v>27122</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>11417</v>
+        <v>11503</v>
       </c>
       <c r="E152" s="4">
-        <v>11826</v>
+        <v>11913</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>381011</v>
+        <v>381297</v>
       </c>
       <c r="C153" s="4">
-        <v>12655</v>
+        <v>12699</v>
       </c>
       <c r="D153" s="4">
-        <v>207514</v>
+        <v>207761</v>
       </c>
       <c r="E153" s="4">
-        <v>601180</v>
+        <v>601757</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3664,10 +3664,10 @@
         <v>188</v>
       </c>
       <c r="D154" s="4">
-        <v>4413</v>
+        <v>4415</v>
       </c>
       <c r="E154" s="4">
-        <v>9419</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20805</v>
+        <v>20818</v>
       </c>
       <c r="C155" s="4">
         <v>421</v>
       </c>
       <c r="D155" s="4">
-        <v>7345</v>
+        <v>7350</v>
       </c>
       <c r="E155" s="4">
-        <v>28571</v>
+        <v>28589</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4521</v>
+        <v>4529</v>
       </c>
       <c r="C156" s="4">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D156" s="4">
-        <v>4288</v>
+        <v>4296</v>
       </c>
       <c r="E156" s="4">
-        <v>9691</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3715,10 +3715,10 @@
         <v>284</v>
       </c>
       <c r="D157" s="4">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="E157" s="4">
-        <v>3830</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="C158" s="4">
         <v>126</v>
       </c>
       <c r="D158" s="4">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="E158" s="4">
-        <v>5165</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>53061</v>
+        <v>53100</v>
       </c>
       <c r="C159" s="4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D159" s="4">
-        <v>8549</v>
+        <v>8561</v>
       </c>
       <c r="E159" s="4">
-        <v>63634</v>
+        <v>63686</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>108143</v>
+        <v>108262</v>
       </c>
       <c r="C160" s="4">
         <v>536</v>
       </c>
       <c r="D160" s="4">
-        <v>31044</v>
+        <v>31085</v>
       </c>
       <c r="E160" s="4">
-        <v>139723</v>
+        <v>139883</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="C161" s="4">
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>4904</v>
+        <v>4909</v>
       </c>
       <c r="E161" s="4">
-        <v>9017</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>457930</v>
+        <v>458234</v>
       </c>
       <c r="C162" s="4">
-        <v>13627</v>
+        <v>13655</v>
       </c>
       <c r="D162" s="4">
-        <v>172871</v>
+        <v>173201</v>
       </c>
       <c r="E162" s="4">
-        <v>644428</v>
+        <v>645090</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
@@ -3820,7 +3820,7 @@
         <v>180</v>
       </c>
       <c r="E163" s="4">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>56315</v>
+        <v>56393</v>
       </c>
       <c r="C164" s="4">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D164" s="4">
-        <v>17573</v>
+        <v>17632</v>
       </c>
       <c r="E164" s="4">
-        <v>75648</v>
+        <v>75787</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2862</v>
+        <v>2870</v>
       </c>
       <c r="E165" s="4">
-        <v>5444</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>90030</v>
+        <v>90118</v>
       </c>
       <c r="C166" s="4">
-        <v>12300</v>
+        <v>12318</v>
       </c>
       <c r="D166" s="4">
-        <v>95686</v>
+        <v>95896</v>
       </c>
       <c r="E166" s="4">
-        <v>198016</v>
+        <v>198332</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>27879</v>
+        <v>27918</v>
       </c>
       <c r="C167" s="4">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D167" s="4">
-        <v>15805</v>
+        <v>15865</v>
       </c>
       <c r="E167" s="4">
-        <v>45084</v>
+        <v>45185</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>9842</v>
+        <v>9849</v>
       </c>
       <c r="C168" s="4">
         <v>145</v>
       </c>
       <c r="D168" s="4">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="E168" s="4">
-        <v>13013</v>
+        <v>13022</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9131</v>
+        <v>9132</v>
       </c>
       <c r="C169" s="4">
         <v>88</v>
       </c>
       <c r="D169" s="4">
-        <v>8079</v>
+        <v>8152</v>
       </c>
       <c r="E169" s="4">
-        <v>17298</v>
+        <v>17372</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20716</v>
+        <v>20734</v>
       </c>
       <c r="C170" s="4">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D170" s="4">
-        <v>12007</v>
+        <v>12019</v>
       </c>
       <c r="E170" s="4">
-        <v>34086</v>
+        <v>34117</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>788853</v>
+        <v>790208</v>
       </c>
       <c r="C171" s="4">
-        <v>49726</v>
+        <v>49821</v>
       </c>
       <c r="D171" s="4">
-        <v>174842</v>
+        <v>175333</v>
       </c>
       <c r="E171" s="4">
-        <v>1013421</v>
+        <v>1015362</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12140</v>
+        <v>12217</v>
       </c>
       <c r="C172" s="4">
         <v>1263</v>
       </c>
       <c r="D172" s="4">
-        <v>8199</v>
+        <v>8211</v>
       </c>
       <c r="E172" s="4">
-        <v>21602</v>
+        <v>21691</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10443</v>
+        <v>10467</v>
       </c>
       <c r="C173" s="4">
         <v>829</v>
       </c>
       <c r="D173" s="4">
-        <v>9359</v>
+        <v>9366</v>
       </c>
       <c r="E173" s="4">
-        <v>20631</v>
+        <v>20662</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4001,13 +4001,13 @@
         <v>798</v>
       </c>
       <c r="C174" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" s="4">
         <v>577</v>
       </c>
       <c r="E174" s="4">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>71532</v>
+        <v>71655</v>
       </c>
       <c r="C175" s="4">
-        <v>4550</v>
+        <v>4565</v>
       </c>
       <c r="D175" s="4">
-        <v>24390</v>
+        <v>24440</v>
       </c>
       <c r="E175" s="4">
-        <v>100472</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>44790</v>
+        <v>44873</v>
       </c>
       <c r="C176" s="4">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="D176" s="4">
-        <v>39470</v>
+        <v>39542</v>
       </c>
       <c r="E176" s="4">
-        <v>86388</v>
+        <v>86547</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7891</v>
+        <v>7903</v>
       </c>
       <c r="C177" s="4">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D177" s="4">
-        <v>6416</v>
+        <v>6428</v>
       </c>
       <c r="E177" s="4">
-        <v>15264</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10862</v>
+        <v>10864</v>
       </c>
       <c r="C178" s="4">
         <v>238</v>
       </c>
       <c r="D178" s="4">
-        <v>9392</v>
+        <v>9419</v>
       </c>
       <c r="E178" s="4">
-        <v>20492</v>
+        <v>20521</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>407684</v>
+        <v>408168</v>
       </c>
       <c r="C179" s="4">
-        <v>53911</v>
+        <v>53945</v>
       </c>
       <c r="D179" s="4">
-        <v>200673</v>
+        <v>200964</v>
       </c>
       <c r="E179" s="4">
-        <v>662268</v>
+        <v>663077</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4106,10 +4106,10 @@
         <v>469</v>
       </c>
       <c r="D180" s="4">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="E180" s="4">
-        <v>4120</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="C181" s="4">
         <v>430</v>
       </c>
       <c r="D181" s="4">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E181" s="4">
-        <v>3071</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>60793</v>
+        <v>60880</v>
       </c>
       <c r="C182" s="4">
-        <v>7329</v>
+        <v>7339</v>
       </c>
       <c r="D182" s="4">
-        <v>36857</v>
+        <v>36993</v>
       </c>
       <c r="E182" s="4">
-        <v>104979</v>
+        <v>105212</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>28604</v>
+        <v>28644</v>
       </c>
       <c r="C183" s="4">
         <v>1152</v>
       </c>
       <c r="D183" s="4">
-        <v>14314</v>
+        <v>14332</v>
       </c>
       <c r="E183" s="4">
-        <v>44070</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16273</v>
+        <v>16303</v>
       </c>
       <c r="C184" s="4">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D184" s="4">
-        <v>11770</v>
+        <v>11814</v>
       </c>
       <c r="E184" s="4">
-        <v>29408</v>
+        <v>29484</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>152421</v>
+        <v>152619</v>
       </c>
       <c r="C185" s="4">
-        <v>8209</v>
+        <v>8221</v>
       </c>
       <c r="D185" s="4">
-        <v>45879</v>
+        <v>45932</v>
       </c>
       <c r="E185" s="4">
-        <v>206509</v>
+        <v>206772</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3679</v>
+        <v>3687</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
       </c>
       <c r="D186" s="4">
-        <v>4539</v>
+        <v>4544</v>
       </c>
       <c r="E186" s="4">
-        <v>8605</v>
+        <v>8618</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15357</v>
+        <v>15363</v>
       </c>
       <c r="C187" s="4">
         <v>175</v>
       </c>
       <c r="D187" s="4">
-        <v>5982</v>
+        <v>6090</v>
       </c>
       <c r="E187" s="4">
-        <v>21514</v>
+        <v>21628</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>62329</v>
+        <v>62423</v>
       </c>
       <c r="C188" s="4">
-        <v>2997</v>
+        <v>3006</v>
       </c>
       <c r="D188" s="4">
-        <v>25414</v>
+        <v>25446</v>
       </c>
       <c r="E188" s="4">
-        <v>90740</v>
+        <v>90875</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>126151</v>
+        <v>126256</v>
       </c>
       <c r="C189" s="4">
-        <v>10330</v>
+        <v>10338</v>
       </c>
       <c r="D189" s="4">
-        <v>54861</v>
+        <v>55208</v>
       </c>
       <c r="E189" s="4">
-        <v>191342</v>
+        <v>191802</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,7 +4270,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8153</v>
+        <v>8157</v>
       </c>
       <c r="C190" s="4">
         <v>64</v>
@@ -4279,7 +4279,7 @@
         <v>2439</v>
       </c>
       <c r="E190" s="4">
-        <v>10656</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6423</v>
+        <v>6437</v>
       </c>
       <c r="C191" s="4">
         <v>500</v>
       </c>
       <c r="D191" s="4">
-        <v>4031</v>
+        <v>4038</v>
       </c>
       <c r="E191" s="4">
-        <v>10954</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>95420</v>
+        <v>95526</v>
       </c>
       <c r="C192" s="4">
-        <v>21124</v>
+        <v>21129</v>
       </c>
       <c r="D192" s="4">
-        <v>48497</v>
+        <v>48653</v>
       </c>
       <c r="E192" s="4">
-        <v>165041</v>
+        <v>165308</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4321,16 +4321,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C193" s="4">
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="E193" s="4">
-        <v>2845</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3012</v>
+        <v>3018</v>
       </c>
       <c r="C194" s="4">
         <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="E194" s="4">
-        <v>5044</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9018</v>
+        <v>9031</v>
       </c>
       <c r="C195" s="4">
         <v>778</v>
       </c>
       <c r="D195" s="4">
-        <v>10507</v>
+        <v>10601</v>
       </c>
       <c r="E195" s="4">
-        <v>20303</v>
+        <v>20410</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14336</v>
+        <v>14341</v>
       </c>
       <c r="C196" s="4">
         <v>555</v>
       </c>
       <c r="D196" s="4">
-        <v>99989</v>
+        <v>100068</v>
       </c>
       <c r="E196" s="4">
-        <v>114880</v>
+        <v>114964</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6486</v>
+        <v>6490</v>
       </c>
       <c r="C197" s="4">
         <v>543</v>
       </c>
       <c r="D197" s="4">
-        <v>9856</v>
+        <v>9927</v>
       </c>
       <c r="E197" s="4">
-        <v>16885</v>
+        <v>16960</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4412,10 +4412,10 @@
         <v>128</v>
       </c>
       <c r="D198" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E198" s="4">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21155</v>
+        <v>21177</v>
       </c>
       <c r="C199" s="4">
         <v>580</v>
       </c>
       <c r="D199" s="4">
-        <v>15206</v>
+        <v>15213</v>
       </c>
       <c r="E199" s="4">
-        <v>36941</v>
+        <v>36970</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>125342</v>
+        <v>125461</v>
       </c>
       <c r="C200" s="4">
-        <v>8395</v>
+        <v>8407</v>
       </c>
       <c r="D200" s="4">
-        <v>25054</v>
+        <v>25107</v>
       </c>
       <c r="E200" s="4">
-        <v>158791</v>
+        <v>158975</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8548</v>
+        <v>8554</v>
       </c>
       <c r="C201" s="4">
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>9609</v>
+        <v>9621</v>
       </c>
       <c r="E201" s="4">
-        <v>18412</v>
+        <v>18430</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>38519</v>
+        <v>38574</v>
       </c>
       <c r="C202" s="4">
         <v>2550</v>
       </c>
       <c r="D202" s="4">
-        <v>12027</v>
+        <v>12070</v>
       </c>
       <c r="E202" s="4">
-        <v>53096</v>
+        <v>53194</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>11969</v>
+        <v>11984</v>
       </c>
       <c r="C203" s="4">
         <v>764</v>
       </c>
       <c r="D203" s="4">
-        <v>5390</v>
+        <v>5410</v>
       </c>
       <c r="E203" s="4">
-        <v>18123</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11385</v>
+        <v>11429</v>
       </c>
       <c r="C204" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D204" s="4">
-        <v>10166</v>
+        <v>10271</v>
       </c>
       <c r="E204" s="4">
-        <v>21849</v>
+        <v>21999</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35049</v>
+        <v>35108</v>
       </c>
       <c r="C205" s="4">
         <v>2536</v>
       </c>
       <c r="D205" s="4">
-        <v>11800</v>
+        <v>11824</v>
       </c>
       <c r="E205" s="4">
-        <v>49385</v>
+        <v>49468</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>62837</v>
+        <v>62960</v>
       </c>
       <c r="C206" s="4">
-        <v>10147</v>
+        <v>10159</v>
       </c>
       <c r="D206" s="4">
-        <v>51058</v>
+        <v>51128</v>
       </c>
       <c r="E206" s="4">
-        <v>124042</v>
+        <v>124247</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="C207" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D207" s="4">
-        <v>4713</v>
+        <v>4721</v>
       </c>
       <c r="E207" s="4">
-        <v>10699</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="E208" s="4">
-        <v>2438</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>31712</v>
+        <v>31752</v>
       </c>
       <c r="C209" s="4">
         <v>359</v>
       </c>
       <c r="D209" s="4">
-        <v>5778</v>
+        <v>5814</v>
       </c>
       <c r="E209" s="4">
-        <v>37849</v>
+        <v>37925</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4616,10 +4616,10 @@
         <v>98</v>
       </c>
       <c r="D210" s="4">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="E210" s="4">
-        <v>2772</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24091</v>
+        <v>24136</v>
       </c>
       <c r="C211" s="4">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D211" s="4">
-        <v>12051</v>
+        <v>12103</v>
       </c>
       <c r="E211" s="4">
-        <v>37642</v>
+        <v>37741</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,7 +4644,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C212" s="4">
         <v>186</v>
@@ -4653,7 +4653,7 @@
         <v>263</v>
       </c>
       <c r="E212" s="4">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>325126</v>
+        <v>326905</v>
       </c>
       <c r="C213" s="4">
-        <v>15587</v>
+        <v>15622</v>
       </c>
       <c r="D213" s="4">
-        <v>116871</v>
+        <v>117156</v>
       </c>
       <c r="E213" s="4">
-        <v>457584</v>
+        <v>459683</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10062</v>
+        <v>10074</v>
       </c>
       <c r="C214" s="4">
         <v>459</v>
       </c>
       <c r="D214" s="4">
-        <v>9025</v>
+        <v>9026</v>
       </c>
       <c r="E214" s="4">
-        <v>19546</v>
+        <v>19559</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>91691</v>
+        <v>92142</v>
       </c>
       <c r="C215" s="4">
         <v>934</v>
       </c>
       <c r="D215" s="4">
-        <v>40078</v>
+        <v>40206</v>
       </c>
       <c r="E215" s="4">
-        <v>132703</v>
+        <v>133282</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6592</v>
+        <v>6598</v>
       </c>
       <c r="C216" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D216" s="4">
-        <v>7961</v>
+        <v>7966</v>
       </c>
       <c r="E216" s="4">
-        <v>14728</v>
+        <v>14740</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C219" s="4">
         <v>49</v>
       </c>
       <c r="D219" s="4">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="E219" s="4">
-        <v>3344</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8852</v>
+        <v>8858</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="E220" s="4">
-        <v>11937</v>
+        <v>11945</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3152416</v>
+        <v>3156278</v>
       </c>
       <c r="C221" s="4">
-        <v>120593</v>
+        <v>120723</v>
       </c>
       <c r="D221" s="4">
-        <v>700391</v>
+        <v>701875</v>
       </c>
       <c r="E221" s="4">
-        <v>3973400</v>
+        <v>3978876</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>125269</v>
+        <v>125349</v>
       </c>
       <c r="C222" s="4">
-        <v>4772</v>
+        <v>4778</v>
       </c>
       <c r="D222" s="4">
-        <v>169696</v>
+        <v>169963</v>
       </c>
       <c r="E222" s="4">
-        <v>299737</v>
+        <v>300090</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4837,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E223" s="4">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6239</v>
+        <v>6242</v>
       </c>
       <c r="C224" s="4">
         <v>144</v>
       </c>
       <c r="D224" s="4">
-        <v>4795</v>
+        <v>4804</v>
       </c>
       <c r="E224" s="4">
-        <v>11178</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4871,10 +4871,10 @@
         <v>57</v>
       </c>
       <c r="D225" s="4">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E225" s="4">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37297</v>
+        <v>37350</v>
       </c>
       <c r="C226" s="4">
         <v>1511</v>
       </c>
       <c r="D226" s="4">
-        <v>11679</v>
+        <v>11690</v>
       </c>
       <c r="E226" s="4">
-        <v>50487</v>
+        <v>50551</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>107628</v>
+        <v>107716</v>
       </c>
       <c r="C227" s="4">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="D227" s="4">
-        <v>158737</v>
+        <v>159037</v>
       </c>
       <c r="E227" s="4">
-        <v>269721</v>
+        <v>270111</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2130496</v>
+        <v>2133386</v>
       </c>
       <c r="C228" s="4">
-        <v>89625</v>
+        <v>90131</v>
       </c>
       <c r="D228" s="4">
-        <v>530160</v>
+        <v>530997</v>
       </c>
       <c r="E228" s="4">
-        <v>2750281</v>
+        <v>2754514</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19553</v>
+        <v>19572</v>
       </c>
       <c r="C229" s="4">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D229" s="4">
-        <v>9579</v>
+        <v>9595</v>
       </c>
       <c r="E229" s="4">
-        <v>29766</v>
+        <v>29802</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17806</v>
+        <v>17825</v>
       </c>
       <c r="C230" s="4">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D230" s="4">
-        <v>12428</v>
+        <v>12504</v>
       </c>
       <c r="E230" s="4">
-        <v>31368</v>
+        <v>31466</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17611</v>
+        <v>17645</v>
       </c>
       <c r="C231" s="4">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D231" s="4">
-        <v>11228</v>
+        <v>11244</v>
       </c>
       <c r="E231" s="4">
-        <v>31423</v>
+        <v>31474</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C232" s="4">
         <v>103</v>
       </c>
       <c r="D232" s="4">
-        <v>4701</v>
+        <v>4710</v>
       </c>
       <c r="E232" s="4">
-        <v>6138</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>51301</v>
+        <v>51363</v>
       </c>
       <c r="C233" s="4">
         <v>631</v>
       </c>
       <c r="D233" s="4">
-        <v>6890</v>
+        <v>6947</v>
       </c>
       <c r="E233" s="4">
-        <v>58822</v>
+        <v>58941</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>74438</v>
+        <v>74519</v>
       </c>
       <c r="C234" s="4">
         <v>1367</v>
       </c>
       <c r="D234" s="4">
-        <v>37792</v>
+        <v>37824</v>
       </c>
       <c r="E234" s="4">
-        <v>113597</v>
+        <v>113710</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>37614</v>
+        <v>37701</v>
       </c>
       <c r="C235" s="4">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="D235" s="4">
-        <v>25048</v>
+        <v>25084</v>
       </c>
       <c r="E235" s="4">
-        <v>65164</v>
+        <v>65291</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>82955</v>
+        <v>83019</v>
       </c>
       <c r="C236" s="4">
-        <v>5914</v>
+        <v>5931</v>
       </c>
       <c r="D236" s="4">
-        <v>36992</v>
+        <v>37068</v>
       </c>
       <c r="E236" s="4">
-        <v>125861</v>
+        <v>126018</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>183978</v>
+        <v>184238</v>
       </c>
       <c r="C237" s="4">
-        <v>3394</v>
+        <v>3398</v>
       </c>
       <c r="D237" s="4">
-        <v>52582</v>
+        <v>52665</v>
       </c>
       <c r="E237" s="4">
-        <v>239954</v>
+        <v>240301</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>69681</v>
+        <v>69788</v>
       </c>
       <c r="C238" s="4">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="D238" s="4">
-        <v>13545</v>
+        <v>13566</v>
       </c>
       <c r="E238" s="4">
-        <v>85647</v>
+        <v>85779</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6569</v>
+        <v>6578</v>
       </c>
       <c r="C239" s="4">
         <v>241</v>
       </c>
       <c r="D239" s="4">
-        <v>3459</v>
+        <v>3464</v>
       </c>
       <c r="E239" s="4">
-        <v>10269</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>60929</v>
+        <v>60992</v>
       </c>
       <c r="C240" s="4">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="D240" s="4">
-        <v>32923</v>
+        <v>32937</v>
       </c>
       <c r="E240" s="4">
-        <v>95961</v>
+        <v>96040</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>627866</v>
+        <v>628781</v>
       </c>
       <c r="C241" s="4">
-        <v>7232</v>
+        <v>7235</v>
       </c>
       <c r="D241" s="4">
-        <v>170765</v>
+        <v>171048</v>
       </c>
       <c r="E241" s="4">
-        <v>805863</v>
+        <v>807064</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>53518</v>
+        <v>53577</v>
       </c>
       <c r="C242" s="4">
-        <v>2671</v>
+        <v>2679</v>
       </c>
       <c r="D242" s="4">
-        <v>18948</v>
+        <v>18960</v>
       </c>
       <c r="E242" s="4">
-        <v>75137</v>
+        <v>75216</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="C243" s="4">
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5562</v>
+        <v>5569</v>
       </c>
       <c r="E243" s="4">
-        <v>8814</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>172655</v>
+        <v>172814</v>
       </c>
       <c r="C244" s="4">
-        <v>12237</v>
+        <v>12262</v>
       </c>
       <c r="D244" s="4">
-        <v>89355</v>
+        <v>89654</v>
       </c>
       <c r="E244" s="4">
-        <v>274247</v>
+        <v>274730</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20144</v>
+        <v>20155</v>
       </c>
       <c r="C245" s="4">
         <v>865</v>
       </c>
       <c r="D245" s="4">
-        <v>37946</v>
+        <v>38129</v>
       </c>
       <c r="E245" s="4">
-        <v>58955</v>
+        <v>59149</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>56949</v>
+        <v>57073</v>
       </c>
       <c r="C246" s="4">
         <v>260</v>
       </c>
       <c r="D246" s="4">
-        <v>11033</v>
+        <v>11073</v>
       </c>
       <c r="E246" s="4">
-        <v>68242</v>
+        <v>68406</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>940579</v>
+        <v>942109</v>
       </c>
       <c r="C247" s="4">
-        <v>39740</v>
+        <v>39993</v>
       </c>
       <c r="D247" s="4">
-        <v>249347</v>
+        <v>249911</v>
       </c>
       <c r="E247" s="4">
-        <v>1229666</v>
+        <v>1232013</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>59104</v>
+        <v>59148</v>
       </c>
       <c r="C248" s="4">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D248" s="4">
-        <v>28513</v>
+        <v>28559</v>
       </c>
       <c r="E248" s="4">
-        <v>89292</v>
+        <v>89383</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,16 +5273,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
       </c>
       <c r="D249" s="4">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E249" s="4">
-        <v>3251</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>84195</v>
+        <v>84285</v>
       </c>
       <c r="C250" s="4">
-        <v>4211</v>
+        <v>4219</v>
       </c>
       <c r="D250" s="4">
-        <v>20092</v>
+        <v>20123</v>
       </c>
       <c r="E250" s="4">
-        <v>108498</v>
+        <v>108627</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>32845</v>
+        <v>32934</v>
       </c>
       <c r="C251" s="4">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="D251" s="4">
-        <v>21962</v>
+        <v>22237</v>
       </c>
       <c r="E251" s="4">
-        <v>57287</v>
+        <v>57653</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12635</v>
+        <v>12659</v>
       </c>
       <c r="C253" s="4">
         <v>725</v>
       </c>
       <c r="D253" s="4">
-        <v>7978</v>
+        <v>7983</v>
       </c>
       <c r="E253" s="4">
-        <v>21338</v>
+        <v>21367</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>19865</v>
+        <v>19903</v>
       </c>
       <c r="C254" s="4">
         <v>171</v>
       </c>
       <c r="D254" s="4">
-        <v>19758</v>
+        <v>19788</v>
       </c>
       <c r="E254" s="4">
-        <v>39794</v>
+        <v>39862</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>16693</v>
+        <v>16733</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3782</v>
+        <v>3803</v>
       </c>
       <c r="E255" s="4">
-        <v>20746</v>
+        <v>20807</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>415112</v>
+        <v>417524</v>
       </c>
       <c r="C256" s="4">
-        <v>14534</v>
+        <v>14551</v>
       </c>
       <c r="D256" s="4">
-        <v>19009</v>
+        <v>19075</v>
       </c>
       <c r="E256" s="4">
-        <v>448655</v>
+        <v>451150</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>45259585</v>
+        <v>45327832</v>
       </c>
       <c r="C257" s="4">
-        <v>1806110</v>
+        <v>1809011</v>
       </c>
       <c r="D257" s="4">
-        <v>12097906</v>
+        <v>12124577</v>
       </c>
       <c r="E257" s="4">
-        <v>59163601</v>
+        <v>59261420</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
